--- a/ResEditor/Design/Stage/G_Prop.xlsx
+++ b/ResEditor/Design/Stage/G_Prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7220" yWindow="5080" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,18 +119,6 @@
   </si>
   <si>
     <t>Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,20 +523,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -556,25 +544,22 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -582,22 +567,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -605,89 +587,77 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1"/>
-    <row r="5" spans="1:8" hidden="1"/>
-    <row r="6" spans="1:8">
+    <row r="4" spans="1:7" hidden="1"/>
+    <row r="5" spans="1:7" hidden="1"/>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>10800001</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>10800002</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>10800003</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/ResEditor/Design/Stage/G_Prop.xlsx
+++ b/ResEditor/Design/Stage/G_Prop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="5080" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7215" yWindow="5085" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,47 +90,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火力点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加B弹个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>BigPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big1Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Da</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiddlePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiddleBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiddleF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle1Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallDa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一条命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等1Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiddlePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,9 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -522,18 +626,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -556,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -570,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -596,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1"/>
@@ -605,60 +709,320 @@
       <c r="A6" s="1">
         <v>10800001</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>10800002</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>10800003</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>10800004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>10800005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10800006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10800007</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>10800008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>10800009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>10800010</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>10800011</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>10800012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>10800013</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>10800014</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>10800015</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>10800016</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -674,14 +1038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ResEditor/Design/Stage/G_Prop.xlsx
+++ b/ResEditor/Design/Stage/G_Prop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="5085" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="1700" yWindow="6420" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,14 +227,26 @@
   </si>
   <si>
     <t>MiddlePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,9 +308,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -626,21 +638,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -648,22 +664,25 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -671,19 +690,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -691,21 +713,24 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1"/>
-    <row r="5" spans="1:7" hidden="1"/>
-    <row r="6" spans="1:7">
+    <row r="4" spans="1:8" hidden="1"/>
+    <row r="5" spans="1:8" hidden="1"/>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>10800001</v>
       </c>
@@ -716,16 +741,19 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>10800002</v>
       </c>
@@ -733,19 +761,22 @@
         <v>34</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>10800003</v>
       </c>
@@ -756,16 +787,19 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>10800004</v>
       </c>
@@ -773,19 +807,22 @@
         <v>22</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>10800005</v>
       </c>
@@ -793,19 +830,22 @@
         <v>23</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10800006</v>
       </c>
@@ -813,19 +853,22 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10800007</v>
       </c>
@@ -833,19 +876,22 @@
         <v>25</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>10800008</v>
       </c>
@@ -853,19 +899,22 @@
         <v>26</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>10800009</v>
       </c>
@@ -879,13 +928,16 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>10800010</v>
       </c>
@@ -893,19 +945,22 @@
         <v>28</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>10800011</v>
       </c>
@@ -916,16 +971,19 @@
         <v>1</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>10800012</v>
       </c>
@@ -933,19 +991,22 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>10800013</v>
       </c>
@@ -953,19 +1014,22 @@
         <v>31</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>10800014</v>
       </c>
@@ -973,19 +1037,22 @@
         <v>32</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>10800015</v>
       </c>
@@ -993,19 +1060,22 @@
         <v>33</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>10800016</v>
       </c>
@@ -1013,15 +1083,18 @@
         <v>51</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>7</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1038,14 +1111,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
